--- a/services/enablix-app/ext-resources/refdata/test/enterprise-software-template.xlsx
+++ b/services/enablix-app/ext-resources/refdata/test/enterprise-software-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24426"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="9400" windowWidth="51200" windowHeight="13160" firstSheet="6" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="regions" sheetId="4" r:id="rId1"/>
@@ -660,9 +660,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -673,11 +674,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2228,7 +2230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3201,8 +3203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3311,8 +3313,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C9">
-    <sortCondition ref="B2"/>
+  <sortState ref="P15:P23">
+    <sortCondition ref="P15"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
